--- a/Excel Files/Scenario 13/TC001/13.0 - TC4 - Upload UOM.xlsx
+++ b/Excel Files/Scenario 13/TC001/13.0 - TC4 - Upload UOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AE2CFB-21AA-4AAD-921F-201CF40288E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE68EC-F39D-4362-A211-6CF7EB6B842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MGF020" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
     <t>TB UOM</t>
   </si>
   <si>
-    <t>TFT</t>
+    <t>TS4T</t>
   </si>
 </sst>
 </file>
@@ -1348,15 +1348,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1494,6 +1485,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E544622-7822-4295-9828-9F58452E70AC}">
   <ds:schemaRefs>
@@ -1504,14 +1504,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450C83A6-B053-4029-B996-CD6125926B94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB8DCF6D-D2D6-4E33-9978-FFE18BB58C04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1527,4 +1519,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450C83A6-B053-4029-B996-CD6125926B94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC001/13.0 - TC4 - Upload UOM.xlsx
+++ b/Excel Files/Scenario 13/TC001/13.0 - TC4 - Upload UOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE68EC-F39D-4362-A211-6CF7EB6B842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89B74E-7FE8-4773-A7C2-4BBCD24F710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <t>TB UOM</t>
   </si>
   <si>
-    <t>TS4T</t>
+    <t>S4T</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1342,12 +1342,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1485,6 +1479,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1495,15 +1495,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E544622-7822-4295-9828-9F58452E70AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB8DCF6D-D2D6-4E33-9978-FFE18BB58C04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1521,6 +1512,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E544622-7822-4295-9828-9F58452E70AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450C83A6-B053-4029-B996-CD6125926B94}">
   <ds:schemaRefs>

--- a/Excel Files/Scenario 13/TC001/13.0 - TC4 - Upload UOM.xlsx
+++ b/Excel Files/Scenario 13/TC001/13.0 - TC4 - Upload UOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF89B74E-7FE8-4773-A7C2-4BBCD24F710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C3A271-406D-49A6-A02B-2353AC2F30DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <t>TB UOM</t>
   </si>
   <si>
-    <t>S4T</t>
+    <t>S6T</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1342,6 +1342,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1479,22 +1494,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450C83A6-B053-4029-B996-CD6125926B94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E544622-7822-4295-9828-9F58452E70AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB8DCF6D-D2D6-4E33-9978-FFE18BB58C04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1510,21 +1527,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E544622-7822-4295-9828-9F58452E70AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450C83A6-B053-4029-B996-CD6125926B94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>